--- a/Luban/LubanConfig/Datas/#SceneData.xlsx
+++ b/Luban/LubanConfig/Datas/#SceneData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\tower-defense-tengine-demo\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFED63B1-60E9-4B97-8CF8-001611B84137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD818BC-0F20-457F-8E81-DF34DF5B3612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15135" yWindow="2850" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>SceneName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneEntityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景实体的编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,10 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,27 +446,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.9140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.08203125" customWidth="1"/>
-    <col min="10" max="17" width="6.08203125" customWidth="1"/>
-    <col min="18" max="18" width="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="4.6640625" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="18" width="6.125" customWidth="1"/>
+    <col min="19" max="19" width="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.625" hidden="1" customWidth="1"/>
+    <col min="21" max="27" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,9 +477,11 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -485,8 +498,9 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -497,9 +511,11 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -516,8 +532,9 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -530,7 +547,9 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -547,8 +566,9 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -559,9 +579,11 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -578,72 +600,88 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="J4:S4"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="U3:AA3"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="U2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
